--- a/data/validation_2.xlsx
+++ b/data/validation_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjeon\OneDrive\Desktop\QA\Bay\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7768E0-0FEB-4900-BA2A-76A08673F067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F623F3FE-2AB6-4EB1-9232-F6666B56A11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-4740" windowWidth="38620" windowHeight="21820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="107">
   <si>
     <t>구분명</t>
   </si>
@@ -96,28 +96,12 @@
   </si>
   <si>
     <t xml:space="preserve">열 추가 값 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">max lenghth test max lenghth test max lenghth test max lenghth test max lenghth test max lenghth test max lenghth test max lenghth test max lenghth test max lenghth test </t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>제품명 초과</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>check length</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>길이 확인</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>의약품</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -163,434 +147,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자동화 업체 자동화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>업체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자동화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>업체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자동화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>업체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자동화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>업체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>자동화</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>업체</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>권정의</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>초과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인 초과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인 초과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인 초과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>초과</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입력</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>확인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>check nums 4</t>
   </si>
   <si>
@@ -776,6 +336,1482 @@
   </si>
   <si>
     <t>1234567980</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리 매칭 확인 10</t>
+  </si>
+  <si>
+    <t>check category 10</t>
+  </si>
+  <si>
+    <t>Medytox2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medytox1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>메디톡스</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>메디톡스2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lutronic</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medytox3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여기까지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여기부턴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여기부턴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여기부턴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여기부턴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자동화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자동화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자동화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자동화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자동화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자동화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자동화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자동화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자동화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자동화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자동화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자동화</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>업체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자동화업체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>자는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여기까지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여기부턴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여기부턴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여기부턴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>여기부턴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>초과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이100자는 여기까지 여기부턴 초과 여기부턴 초과 여기부턴 초과 </t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>max lenghth test max lenghth test max lenghth test max lenghth test max lenghth test max 100 is here overtext overtext overtext overtext overtext overtext overtext overtext overtext overtext overtext overtext overtext overtext overtext overtext</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>max lenghth test max lenghth test max lenghth test max lenghth test max lenghth test max 100 is here overtext</t>
+  </si>
+  <si>
+    <t>제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이100자는 여기까지 초과텍스트</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -798,21 +1834,25 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="25"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -904,7 +1944,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -932,13 +1972,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1211,518 +2252,518 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
     </row>
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2706,23 +3747,26 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Z1002"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J36" sqref="J36"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="11.109375" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="76.77734375" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="41.21875" customWidth="1"/>
+    <col min="6" max="6" width="36.6640625" customWidth="1"/>
     <col min="7" max="8" width="11.109375" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11.109375" customWidth="1"/>
-    <col min="12" max="12" width="13.88671875" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" customWidth="1"/>
+    <col min="12" max="12" width="32.109375" customWidth="1"/>
+    <col min="13" max="13" width="35.33203125" customWidth="1"/>
     <col min="14" max="14" width="12.6640625" customWidth="1"/>
     <col min="15" max="26" width="11.109375" customWidth="1"/>
   </cols>
@@ -2772,11 +3816,11 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>16</v>
+      <c r="A2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>17</v>
@@ -2785,10 +3829,10 @@
         <v>18</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>19</v>
@@ -2815,7 +3859,7 @@
         <v>23</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2832,10 +3876,10 @@
         <v>18</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>19</v>
@@ -2862,27 +3906,27 @@
         <v>23</v>
       </c>
       <c r="O3" s="12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3"/>
       <c r="B4" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I4" s="4">
         <v>99999999</v>
@@ -2903,7 +3947,7 @@
         <v>23</v>
       </c>
       <c r="O4" s="12" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2920,10 +3964,10 @@
         <v>18</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>19</v>
@@ -2950,7 +3994,7 @@
         <v>23</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="P5" s="6"/>
     </row>
@@ -2968,10 +4012,10 @@
         <v>18</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>19</v>
@@ -2998,7 +4042,7 @@
         <v>23</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="P6" s="6"/>
     </row>
@@ -3016,10 +4060,10 @@
         <v>18</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>19</v>
@@ -3033,8 +4077,8 @@
       <c r="J7" s="4">
         <v>1234567890</v>
       </c>
-      <c r="K7" s="21" t="s">
-        <v>98</v>
+      <c r="K7" s="19" t="s">
+        <v>92</v>
       </c>
       <c r="L7" s="3" t="s">
         <v>21</v>
@@ -3046,7 +4090,7 @@
         <v>23</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3063,10 +4107,10 @@
         <v>18</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>19</v>
@@ -3093,7 +4137,7 @@
         <v>23</v>
       </c>
       <c r="O8" s="12" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="P8" s="6"/>
       <c r="Q8" s="6" t="s">
@@ -3141,10 +4185,10 @@
         <v>18</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>19</v>
@@ -3162,16 +4206,16 @@
         <v>10</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>42</v>
+        <v>102</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O9" s="12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3188,10 +4232,10 @@
         <v>18</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>19</v>
@@ -3212,13 +4256,13 @@
         <v>21</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="N10" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O10" s="12" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.6" x14ac:dyDescent="0.35">
@@ -3235,10 +4279,10 @@
         <v>18</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>19</v>
@@ -3247,7 +4291,7 @@
         <v>20</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="J11" s="4">
         <v>5</v>
@@ -3259,13 +4303,13 @@
         <v>21</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O11" s="12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3282,10 +4326,10 @@
         <v>18</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>19</v>
@@ -3297,7 +4341,7 @@
         <v>15000</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K12" s="4">
         <v>10</v>
@@ -3306,13 +4350,13 @@
         <v>21</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3329,10 +4373,10 @@
         <v>18</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>19</v>
@@ -3347,19 +4391,19 @@
         <v>5</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="L13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N13" s="5" t="s">
         <v>23</v>
       </c>
       <c r="O13" s="12" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -3367,25 +4411,25 @@
         <v>15</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>20</v>
+      <c r="H14" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="I14" s="4">
         <v>15000</v>
@@ -3406,30 +4450,30 @@
         <v>23</v>
       </c>
       <c r="O14" s="12" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>19</v>
+        <v>52</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>20</v>
@@ -3453,33 +4497,33 @@
         <v>23</v>
       </c>
       <c r="O15" s="12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>20</v>
+        <v>54</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>98</v>
       </c>
       <c r="I16" s="4">
         <v>15000</v>
@@ -3500,33 +4544,33 @@
         <v>23</v>
       </c>
       <c r="O16" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="I17" s="4">
         <v>15000</v>
@@ -3548,30 +4592,30 @@
       </c>
       <c r="O17" s="15"/>
     </row>
-    <row r="18" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>19</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>20</v>
+        <v>99</v>
       </c>
       <c r="I18" s="4">
         <v>15000</v>
@@ -3592,30 +4636,28 @@
         <v>23</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="9" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="9" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="H19" s="3"/>
       <c r="I19" s="4">
         <v>15000</v>
       </c>
@@ -3635,10 +4677,11 @@
         <v>23</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>16</v>
@@ -3648,14 +4691,12 @@
         <v>18</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="G20" s="3"/>
       <c r="H20" s="3" t="s">
         <v>20</v>
       </c>
@@ -3678,27 +4719,25 @@
         <v>23</v>
       </c>
       <c r="O20" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>19</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="G21" s="3"/>
       <c r="H21" s="3" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="I21" s="4">
         <v>15000</v>
@@ -3719,28 +4758,26 @@
         <v>23</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H22" s="3"/>
       <c r="I22" s="4">
         <v>15000</v>
       </c>
@@ -3760,46 +4797,77 @@
         <v>23</v>
       </c>
       <c r="O22" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="4">
+        <v>15000</v>
+      </c>
+      <c r="J23" s="4">
+        <v>14</v>
+      </c>
+      <c r="K23" s="4">
+        <v>18</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N23" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M24" s="7"/>
       <c r="N24" s="7"/>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M25" s="7"/>
       <c r="N25" s="7"/>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M26" s="7"/>
       <c r="N26" s="7"/>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M27" s="7"/>
       <c r="N27" s="7"/>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M28" s="7"/>
       <c r="N28" s="7"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M29" s="7"/>
       <c r="N29" s="7"/>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M31" s="7"/>
       <c r="N31" s="7"/>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M32" s="7"/>
       <c r="N32" s="7"/>
     </row>
@@ -7674,14 +8742,6 @@
     <row r="1000" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M1000" s="7"/>
       <c r="N1000" s="7"/>
-    </row>
-    <row r="1001" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M1001" s="7"/>
-      <c r="N1001" s="7"/>
-    </row>
-    <row r="1002" spans="13:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M1002" s="7"/>
-      <c r="N1002" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/data/validation_2.xlsx
+++ b/data/validation_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjeon\OneDrive\Desktop\QA\Bay\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F623F3FE-2AB6-4EB1-9232-F6666B56A11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF71A96B-8A32-4AA7-BFA9-7543AD31EF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-4740" windowWidth="38620" windowHeight="21820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="108">
   <si>
     <t>구분명</t>
   </si>
@@ -1812,6 +1812,10 @@
   </si>
   <si>
     <t>제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이100자는 여기까지 초과텍스트</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15000.0</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1944,7 +1948,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1980,6 +1984,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -3751,13 +3758,13 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A24:O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="76.77734375" customWidth="1"/>
+    <col min="2" max="2" width="39.21875" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" customWidth="1"/>
     <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="41.21875" customWidth="1"/>
@@ -3765,8 +3772,8 @@
     <col min="7" max="8" width="11.109375" customWidth="1"/>
     <col min="9" max="9" width="14" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="11.109375" customWidth="1"/>
-    <col min="12" max="12" width="32.109375" customWidth="1"/>
-    <col min="13" max="13" width="35.33203125" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" customWidth="1"/>
+    <col min="13" max="13" width="22.21875" customWidth="1"/>
     <col min="14" max="14" width="12.6640625" customWidth="1"/>
     <col min="15" max="26" width="11.109375" customWidth="1"/>
   </cols>
@@ -3822,11 +3829,11 @@
       <c r="B2" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
+      <c r="C2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>103</v>
@@ -3834,26 +3841,26 @@
       <c r="F2" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>20</v>
+      <c r="G2" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="I2" s="4">
-        <v>15000</v>
+        <v>123456789</v>
       </c>
       <c r="J2" s="4">
-        <v>5</v>
+        <v>123456798</v>
       </c>
       <c r="K2" s="4">
-        <v>10</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>22</v>
+        <v>123456798</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="N2" s="5" t="s">
         <v>23</v>
@@ -4431,14 +4438,14 @@
       <c r="H14" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="I14" s="4">
-        <v>15000</v>
+      <c r="I14" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="J14" s="4">
-        <v>6</v>
+        <v>-6</v>
       </c>
       <c r="K14" s="4">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>21</v>
@@ -4835,9 +4842,21 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
+    <row r="24" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="8"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
     </row>
     <row r="25" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="M25" s="7"/>

--- a/data/validation_2.xlsx
+++ b/data/validation_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kjeon\OneDrive\Desktop\QA\Bay\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF71A96B-8A32-4AA7-BFA9-7543AD31EF65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B879AFCB-C11C-45BA-8954-1C882A097B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38510" yWindow="-4740" windowWidth="38620" windowHeight="21820" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="107">
   <si>
     <t>구분명</t>
   </si>
@@ -1812,10 +1812,6 @@
   </si>
   <si>
     <t>제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이 확인 테스트 제품명 길이100자는 여기까지 초과텍스트</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15000.0</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3758,7 +3754,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A24:O25"/>
+      <selection pane="bottomLeft" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4438,14 +4434,14 @@
       <c r="H14" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="I14" s="23" t="s">
-        <v>107</v>
+      <c r="I14" s="4">
+        <v>15000</v>
       </c>
       <c r="J14" s="4">
-        <v>-6</v>
+        <v>5</v>
       </c>
       <c r="K14" s="4">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>21</v>
@@ -4492,7 +4488,7 @@
         <v>7</v>
       </c>
       <c r="K15" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L15" s="3" t="s">
         <v>21</v>
